--- a/biology/Zoologie/Crocodylidae/Crocodylidae.xlsx
+++ b/biology/Zoologie/Crocodylidae/Crocodylidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Crocodilidés (Crocodylidae) sont une famille de crocodiliens. Elle a été créée par Georges Cuvier en 1807. Cette famille regroupe comme espèces actuelles les crocodiles (Crocodylinae) et le Faux-gavial de Malaisie (Tomistominae) ; toutefois des analyses génétiques récentes incluent les Tomistominés dans la famille des Gavialidés[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Crocodilidés (Crocodylidae) sont une famille de crocodiliens. Elle a été créée par Georges Cuvier en 1807. Cette famille regroupe comme espèces actuelles les crocodiles (Crocodylinae) et le Faux-gavial de Malaisie (Tomistominae) ; toutefois des analyses génétiques récentes incluent les Tomistominés dans la famille des Gavialidés.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette famille se rencontrent en Afrique, en Amérique tropicale, en Asie du Sud, en Asie du Sud-Est et en Océanie. 
 </t>
@@ -542,7 +556,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille Crocodylinae, les crocodiles, comprenant les genres actuels:
 Crocodylus Laurenti, 1768
@@ -551,7 +567,7 @@
 Sous-famille Tomistominae, comprenant le genre actuel:
 Tomistoma Müller, 1846
 Sous-famille †Mekosuchinae (éteinte)
-et les genres fossiles basaux, d'après Paleobiology Database                   (2014)[2]:
+et les genres fossiles basaux, d'après Paleobiology Database                   (2014):
 †Euthecodon Fourtau, 1918
 †Rimasuchus Storrs, 2003
 †Voay Brochu, 2007
@@ -584,9 +600,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cladogramme simplifié possible d'après C. A. Brochu and G. W. Storrs (2012)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladogramme simplifié possible d'après C. A. Brochu and G. W. Storrs (2012) :
 </t>
         </is>
       </c>
@@ -615,7 +633,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot vient du latin crocodilus, mot venant lui-même du grec krokodilos qui désigne les lézards. Hérodote explique que le mot krokodilos était donné par les Ioniens aux lézards des murailles et par analogie a été donné aux crocodiles vivant dans le Nil.
 </t>
@@ -646,7 +666,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cuvier, 1807 : Sur les différentes espèces de crocodiles vivants et sur leurs caractères distinctifs. Annales du Muséum National d'Histoire Naturelle, vol. 10, p. 8-86 (texte intégral).</t>
         </is>
